--- a/background/RMOC-Buvidal-Cost-calculator-V1.0 (1).xlsx
+++ b/background/RMOC-Buvidal-Cost-calculator-V1.0 (1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sknight5\OneDrive - Department of Health and Social Care\Documents\projects\long-acting-buprenorphine-cost-effectiveness\background\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA41F7E-FB1F-425C-B155-BEE670259E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1283,7 +1289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1833,185 +1839,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2027,27 +2054,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2232,7 +2238,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6DA2D27-6D8D-49A3-902E-594BFE7CA85B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,8 +2246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8191499" y="7058025"/>
-          <a:ext cx="4036063" cy="639445"/>
+          <a:off x="8191499" y="6902450"/>
+          <a:ext cx="4036063" cy="620395"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4032447" cy="640080"/>
         </a:xfrm>
@@ -2251,7 +2257,7 @@
           <xdr:cNvPr id="4" name="Picture 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{328DD02B-7476-49F2-B6BD-B698E6EDD17A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2286,7 +2292,7 @@
           <xdr:cNvPr id="5" name="Picture 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0461E62-D9AD-49E2-ADC3-C1AFC2FD073F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2315,7 +2321,7 @@
           <xdr:cNvPr id="6" name="Group 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4603F636-CFA1-400A-A628-431EE4456E00}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2334,7 +2340,7 @@
             <xdr:cNvPr id="9" name="Picture 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04C9B449-10DE-4EFE-9A99-CC123530443D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2368,7 +2374,7 @@
             <xdr:cNvPr id="10" name="Picture 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11C240F2-308B-4694-9BEA-C00177D39BA8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2402,7 +2408,7 @@
             <xdr:cNvPr id="11" name="Rectangle 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B8CD3A2-D541-4791-A23D-97263A78E26B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2453,7 +2459,7 @@
           <xdr:cNvPr id="7" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA04C759-1E5E-43C5-87D8-97175E9D4B29}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2488,7 +2494,7 @@
           <xdr:cNvPr id="8" name="Picture 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3581B9BB-E963-4E0B-9BD0-BD2BDB051A99}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2536,7 +2542,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="X:\PPU\MedicinesInfo\RMOC\Admin\Templates\Images (put where you think is best)\SPS-Logo_Large-1024x327.jpg"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="X:\PPU\MedicinesInfo\RMOC\Admin\Templates\Images (put where you think is best)\SPS-Logo_Large-1024x327.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2583,7 +2595,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="image1.png" descr="cid:57A58599-5FC5-44CD-AD04-66E8246AF16A@Belkin"/>
+        <xdr:cNvPr id="15" name="image1.png" descr="cid:57A58599-5FC5-44CD-AD04-66E8246AF16A@Belkin">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2870,31 +2888,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="28.5" x14ac:dyDescent="0.65">
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
@@ -2919,7 +2937,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>95</v>
       </c>
@@ -2944,7 +2962,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="s">
         <v>94</v>
       </c>
@@ -2969,7 +2987,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" s="50" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="50" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="105" t="s">
         <v>96</v>
       </c>
@@ -2994,7 +3012,7 @@
       <c r="T9" s="105"/>
       <c r="U9" s="103"/>
     </row>
-    <row r="10" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -3019,7 +3037,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3061,7 @@
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="102" t="s">
         <v>152</v>
       </c>
@@ -3067,7 +3085,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="105" t="s">
         <v>153</v>
       </c>
@@ -3091,7 +3109,7 @@
       <c r="S15" s="105"/>
       <c r="T15" s="105"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="102" t="s">
         <v>16</v>
       </c>
@@ -3115,7 +3133,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="104" t="s">
         <v>19</v>
       </c>
@@ -3139,7 +3157,7 @@
       <c r="S17" s="104"/>
       <c r="T17" s="104"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="102" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3181,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
     </row>
-    <row r="19" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="104" t="s">
         <v>20</v>
       </c>
@@ -3187,7 +3205,7 @@
       <c r="S19" s="104"/>
       <c r="T19" s="104"/>
     </row>
-    <row r="20" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="104" t="s">
         <v>109</v>
       </c>
@@ -3211,31 +3229,31 @@
       <c r="S20" s="104"/>
       <c r="T20" s="104"/>
     </row>
-    <row r="21" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="106" t="s">
         <v>151</v>
       </c>
@@ -3259,22 +3277,22 @@
       <c r="S27" s="106"/>
       <c r="T27" s="106"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="106" t="s">
         <v>155</v>
       </c>
@@ -3298,7 +3316,7 @@
       <c r="S31" s="106"/>
       <c r="T31" s="106"/>
     </row>
-    <row r="32" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -3317,68 +3335,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" customWidth="1"/>
+    <col min="11" max="11" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="126"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="145"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="134" t="s">
+    <row r="6" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="127" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="67"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -3388,21 +3406,21 @@
       <c r="G7" s="64"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+    <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="100"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -3412,18 +3430,18 @@
       <c r="G9" s="64"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="149" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>1</v>
       </c>
@@ -3446,8 +3464,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="133" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3462,17 +3480,17 @@
       <c r="E12" s="26">
         <v>2</v>
       </c>
-      <c r="F12" s="150">
+      <c r="F12" s="137">
         <f>(C12/D12*E12)+(C13/D13*E13)</f>
         <v>4.5357142857142856</v>
       </c>
-      <c r="G12" s="152">
+      <c r="G12" s="139">
         <f>F12*365</f>
         <v>1655.5357142857142</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="133"/>
       <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
@@ -3485,10 +3503,10 @@
       <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="152"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="66" t="s">
         <v>7</v>
       </c>
@@ -3513,8 +3531,8 @@
         <v>271.56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="140" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -3529,17 +3547,17 @@
       <c r="E15" s="26">
         <v>2</v>
       </c>
-      <c r="F15" s="155">
+      <c r="F15" s="142">
         <f>(C15/D15*E15)+(C16/D16*E16)</f>
         <v>2.9385714285714286</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="107">
         <f>F15*365</f>
         <v>1072.5785714285714</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="141"/>
       <c r="B16" s="27" t="s">
         <v>2</v>
       </c>
@@ -3552,11 +3570,11 @@
       <c r="E16" s="26">
         <v>1</v>
       </c>
-      <c r="F16" s="156"/>
-      <c r="G16" s="158"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160" t="s">
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="113" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -3579,8 +3597,8 @@
         <v>2908.36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="113"/>
       <c r="B18" s="30" t="s">
         <v>31</v>
       </c>
@@ -3601,76 +3619,76 @@
         <v>2876.3999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117" t="s">
+    <row r="22" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="161" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
-      <c r="B25" s="147" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="115"/>
+      <c r="B25" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="146" t="s">
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="146" t="s">
+      <c r="G25" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="146" t="s">
+      <c r="H25" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="162" t="s">
+      <c r="I25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="146" t="s">
+      <c r="J25" s="116" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
-      <c r="B26" s="147" t="s">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="115"/>
+      <c r="B26" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148" t="s">
+      <c r="C26" s="115"/>
+      <c r="D26" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="148"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="146"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="116"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="115"/>
       <c r="B27" s="33" t="s">
         <v>49</v>
       </c>
@@ -3683,107 +3701,107 @@
       <c r="E27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="146"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="141" t="s">
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="116"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="142">
+      <c r="B28" s="134">
         <v>3</v>
       </c>
-      <c r="C28" s="143">
+      <c r="C28" s="111">
         <f>B28/60</f>
         <v>0.05</v>
       </c>
-      <c r="D28" s="144">
+      <c r="D28" s="110">
         <v>3</v>
       </c>
-      <c r="E28" s="143">
+      <c r="E28" s="111">
         <f>D28/60</f>
         <v>0.05</v>
       </c>
-      <c r="F28" s="145">
+      <c r="F28" s="112">
         <v>14.02</v>
       </c>
-      <c r="G28" s="145">
+      <c r="G28" s="112">
         <v>14.02</v>
       </c>
-      <c r="H28" s="135">
+      <c r="H28" s="131">
         <v>19.059999999999999</v>
       </c>
-      <c r="I28" s="137">
+      <c r="I28" s="122">
         <v>1</v>
       </c>
-      <c r="J28" s="139">
+      <c r="J28" s="125">
         <f>(F28*C28)+(G28*C28)+(H28*I28*E28)</f>
         <v>2.355</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="141"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="140"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="141" t="s">
+    <row r="29" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="126"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="142">
+      <c r="B30" s="134">
         <v>15</v>
       </c>
-      <c r="C30" s="143">
+      <c r="C30" s="111">
         <f>B30/60</f>
         <v>0.25</v>
       </c>
-      <c r="D30" s="144">
+      <c r="D30" s="110">
         <v>15</v>
       </c>
-      <c r="E30" s="143">
+      <c r="E30" s="111">
         <f>D30/60</f>
         <v>0.25</v>
       </c>
-      <c r="F30" s="145">
+      <c r="F30" s="112">
         <v>14.02</v>
       </c>
-      <c r="G30" s="145">
+      <c r="G30" s="112">
         <v>14.02</v>
       </c>
-      <c r="H30" s="164">
+      <c r="H30" s="120">
         <v>19.059999999999999</v>
       </c>
-      <c r="I30" s="137">
+      <c r="I30" s="122">
         <v>1</v>
       </c>
-      <c r="J30" s="139">
+      <c r="J30" s="125">
         <f>(F30*C30)+(G30*C30)+(H30*I30*E30)</f>
         <v>11.774999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="141"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="140"/>
-    </row>
-    <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="126"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="106" t="s">
         <v>145</v>
       </c>
@@ -3797,21 +3815,21 @@
       <c r="I33" s="106"/>
       <c r="J33" s="106"/>
     </row>
-    <row r="35" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+    <row r="35" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -3823,48 +3841,48 @@
       <c r="I36" s="65"/>
       <c r="J36" s="65"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="118" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="163" t="s">
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="114" t="s">
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="114"/>
-    </row>
-    <row r="39" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="163"/>
-      <c r="B39" s="131" t="s">
+      <c r="F38" s="158"/>
+    </row>
+    <row r="39" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="119"/>
+      <c r="B39" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="130" t="s">
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="130"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="67"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="163"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="119"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="68" t="s">
         <v>34</v>
       </c>
@@ -3872,7 +3890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="s">
         <v>61</v>
       </c>
@@ -3882,16 +3900,16 @@
       <c r="E41" s="20"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="133" t="str">
+      <c r="B42" s="118" t="str">
         <f>IF(A42="Buprenorphine oral lyophilisates sugar free (Espranor®)",$G$12,IF(A42="Methadone oral solution",$G$14,IF(A42="Buprenorphine sublingual tablets sugar free",$G$15,"")))</f>
         <v/>
       </c>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
       <c r="E42" s="17">
         <f>$G$17</f>
         <v>2908.36</v>
@@ -3901,23 +3919,23 @@
         <v>2876.3999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
       <c r="D43" s="74"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="133">
+      <c r="B44" s="118">
         <f>$J$28*365</f>
         <v>859.57500000000005</v>
       </c>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="21">
         <f>$J$30*52</f>
         <v>612.29999999999995</v>
@@ -3927,33 +3945,33 @@
         <v>141.29999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
       <c r="E45" s="18"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
       <c r="E47" s="51" t="s">
         <v>53</v>
       </c>
@@ -3961,15 +3979,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
       <c r="E48" s="51" t="s">
         <v>53</v>
       </c>
@@ -3977,15 +3995,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
       <c r="E49" s="51" t="s">
         <v>53</v>
       </c>
@@ -3993,15 +4011,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
       <c r="E50" s="51" t="s">
         <v>53</v>
       </c>
@@ -4009,15 +4027,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
       <c r="E51" s="51" t="s">
         <v>53</v>
       </c>
@@ -4025,22 +4043,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
       <c r="E53" s="51" t="s">
         <v>53</v>
       </c>
@@ -4048,12 +4066,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="154"/>
+      <c r="D54" s="154"/>
       <c r="E54" s="51" t="s">
         <v>53</v>
       </c>
@@ -4061,12 +4079,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
       <c r="E55" s="51" t="s">
         <v>53</v>
       </c>
@@ -4074,23 +4092,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="124">
+      <c r="B57" s="155">
         <f>SUM(B42:D55)</f>
         <v>859.57500000000005</v>
       </c>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
       <c r="E57" s="70">
         <f>SUM(E42:E55)</f>
         <v>3520.66</v>
@@ -4100,13 +4118,13 @@
         <v>3017.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="132" t="s">
+    <row r="58" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="153"/>
       <c r="E58" s="78">
         <f>E57-B57</f>
         <v>2661.085</v>
@@ -4116,19 +4134,19 @@
         <v>2158.125</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="107" t="s">
+    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="85">
         <v>100</v>
       </c>
       <c r="F59" s="78"/>
     </row>
-    <row r="60" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="81"/>
       <c r="B60" s="81"/>
       <c r="C60" s="81"/>
@@ -4136,21 +4154,21 @@
       <c r="E60" s="78"/>
       <c r="F60" s="78"/>
     </row>
-    <row r="61" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="117" t="s">
+    <row r="61" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="65"/>
       <c r="B62" s="65"/>
       <c r="C62" s="65"/>
@@ -4162,47 +4180,47 @@
       <c r="I62" s="65"/>
       <c r="J62" s="65"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="118" t="s">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
       <c r="G63" s="65"/>
       <c r="H63" s="65"/>
       <c r="I63" s="65"/>
       <c r="J63" s="65"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="114" t="s">
+      <c r="C64" s="150"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="114"/>
+      <c r="F64" s="158"/>
       <c r="G64" s="65"/>
       <c r="H64" s="65"/>
       <c r="I64" s="65"/>
       <c r="J64" s="65"/>
     </row>
-    <row r="65" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="115" t="s">
+      <c r="B65" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="154"/>
       <c r="E65" s="51" t="s">
         <v>53</v>
       </c>
@@ -4214,15 +4232,15 @@
       <c r="I65" s="65"/>
       <c r="J65" s="65"/>
     </row>
-    <row r="66" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
+      <c r="B66" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
       <c r="E66" s="51" t="s">
         <v>53</v>
       </c>
@@ -4234,11 +4252,11 @@
       <c r="I66" s="65"/>
       <c r="J66" s="65"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="116"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="116"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="65"/>
@@ -4246,13 +4264,13 @@
       <c r="I67" s="65"/>
       <c r="J67" s="65"/>
     </row>
-    <row r="68" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="65"/>
@@ -4260,15 +4278,15 @@
       <c r="I68" s="65"/>
       <c r="J68" s="65"/>
     </row>
-    <row r="69" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
+      <c r="B69" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="154"/>
+      <c r="D69" s="154"/>
       <c r="E69" s="51" t="s">
         <v>53</v>
       </c>
@@ -4280,15 +4298,15 @@
       <c r="I69" s="65"/>
       <c r="J69" s="65"/>
     </row>
-    <row r="70" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
+      <c r="B70" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="154"/>
+      <c r="D70" s="154"/>
       <c r="E70" s="51" t="s">
         <v>53</v>
       </c>
@@ -4300,15 +4318,15 @@
       <c r="I70" s="65"/>
       <c r="J70" s="65"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
+      <c r="B71" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="154"/>
+      <c r="D71" s="154"/>
       <c r="E71" s="51" t="s">
         <v>53</v>
       </c>
@@ -4320,15 +4338,15 @@
       <c r="I71" s="65"/>
       <c r="J71" s="65"/>
     </row>
-    <row r="72" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
+      <c r="B72" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="154"/>
+      <c r="D72" s="154"/>
       <c r="E72" s="51" t="s">
         <v>53</v>
       </c>
@@ -4340,15 +4358,15 @@
       <c r="I72" s="65"/>
       <c r="J72" s="65"/>
     </row>
-    <row r="73" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
+      <c r="B73" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="154"/>
+      <c r="D73" s="154"/>
       <c r="E73" s="51" t="s">
         <v>53</v>
       </c>
@@ -4360,11 +4378,11 @@
       <c r="I73" s="65"/>
       <c r="J73" s="65"/>
     </row>
-    <row r="74" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="116"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="156"/>
+      <c r="D74" s="156"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="65"/>
@@ -4372,15 +4390,15 @@
       <c r="I74" s="65"/>
       <c r="J74" s="65"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
+      <c r="B75" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="51" t="s">
         <v>53</v>
       </c>
@@ -4392,13 +4410,13 @@
       <c r="I75" s="65"/>
       <c r="J75" s="65"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="B76" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
+      <c r="B76" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="154"/>
+      <c r="D76" s="154"/>
       <c r="E76" s="51" t="s">
         <v>53</v>
       </c>
@@ -4410,12 +4428,12 @@
       <c r="I76" s="65"/>
       <c r="J76" s="65"/>
     </row>
-    <row r="77" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
+    <row r="77" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
       <c r="E77" s="51" t="s">
         <v>53</v>
       </c>
@@ -4427,10 +4445,10 @@
       <c r="I77" s="65"/>
       <c r="J77" s="65"/>
     </row>
-    <row r="78" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
+    <row r="78" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="156"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="156"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="65"/>
@@ -4438,16 +4456,16 @@
       <c r="I78" s="65"/>
       <c r="J78" s="65"/>
     </row>
-    <row r="79" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="124">
+      <c r="B79" s="155">
         <f>SUM(B65:D77)+(B57*E59)</f>
         <v>85957.5</v>
       </c>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="144"/>
       <c r="E79" s="70">
         <f>SUM(E65:E77)+(E57*E59)</f>
         <v>352066</v>
@@ -4463,13 +4481,13 @@
       <c r="O79" s="82"/>
       <c r="P79" s="82"/>
     </row>
-    <row r="80" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="108" t="s">
+    <row r="80" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
       <c r="E80" s="78">
         <f>E79-B79</f>
         <v>266108.5</v>
@@ -4485,7 +4503,7 @@
       <c r="O80" s="82"/>
       <c r="P80" s="82"/>
     </row>
-    <row r="81" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="77"/>
       <c r="C81" s="58"/>
@@ -4499,19 +4517,19 @@
       <c r="O81" s="82"/>
       <c r="P81" s="82"/>
     </row>
-    <row r="82" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="117" t="s">
+    <row r="82" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="117"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="117"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="124"/>
+      <c r="J82" s="124"/>
       <c r="K82" s="82"/>
       <c r="L82" s="83"/>
       <c r="M82" s="83"/>
@@ -4519,7 +4537,7 @@
       <c r="O82" s="82"/>
       <c r="P82" s="82"/>
     </row>
-    <row r="83" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="65"/>
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
@@ -4537,14 +4555,14 @@
       <c r="O83" s="82"/>
       <c r="P83" s="82"/>
     </row>
-    <row r="84" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="112" t="s">
+    <row r="84" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="112"/>
-      <c r="C84" s="112"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="112"/>
+      <c r="B84" s="166"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="166"/>
       <c r="F84" s="90">
         <v>100</v>
       </c>
@@ -4559,7 +4577,7 @@
       <c r="O84" s="82"/>
       <c r="P84" s="82"/>
     </row>
-    <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
       <c r="D85" s="57"/>
@@ -4572,16 +4590,16 @@
       <c r="O85" s="82"/>
       <c r="P85" s="82"/>
     </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="109" t="s">
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="109"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="162"/>
+      <c r="D86" s="162"/>
+      <c r="E86" s="162"/>
+      <c r="F86" s="162"/>
+      <c r="G86" s="162"/>
       <c r="H86" s="88"/>
       <c r="K86" s="84"/>
       <c r="L86" s="8"/>
@@ -4590,14 +4608,14 @@
       <c r="O86" s="67"/>
       <c r="P86" s="8"/>
     </row>
-    <row r="87" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="119" t="s">
+    <row r="87" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="119"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="119"/>
-      <c r="E87" s="119"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
       <c r="F87" s="92" t="s">
         <v>117</v>
       </c>
@@ -4614,14 +4632,14 @@
       <c r="O87" s="67"/>
       <c r="P87" s="8"/>
     </row>
-    <row r="88" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="128" t="s">
+    <row r="88" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="128"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
+      <c r="B88" s="147"/>
+      <c r="C88" s="147"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="147"/>
       <c r="F88" s="87">
         <v>0.7</v>
       </c>
@@ -4635,20 +4653,20 @@
       </c>
       <c r="I88" s="7"/>
       <c r="K88" s="67"/>
-      <c r="L88" s="123"/>
-      <c r="M88" s="123"/>
-      <c r="N88" s="123"/>
+      <c r="L88" s="160"/>
+      <c r="M88" s="160"/>
+      <c r="N88" s="160"/>
       <c r="O88" s="82"/>
       <c r="P88" s="82"/>
     </row>
-    <row r="89" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="121" t="s">
+    <row r="89" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
+      <c r="B89" s="149"/>
+      <c r="C89" s="149"/>
+      <c r="D89" s="149"/>
+      <c r="E89" s="149"/>
       <c r="F89" s="87">
         <v>0.3</v>
       </c>
@@ -4661,20 +4679,20 @@
         <v>75453.321428571435</v>
       </c>
       <c r="K89" s="67"/>
-      <c r="L89" s="123"/>
-      <c r="M89" s="123"/>
-      <c r="N89" s="123"/>
+      <c r="L89" s="160"/>
+      <c r="M89" s="160"/>
+      <c r="N89" s="160"/>
       <c r="O89" s="82"/>
       <c r="P89" s="82"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="121" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="121"/>
-      <c r="C90" s="121"/>
-      <c r="D90" s="121"/>
-      <c r="E90" s="121"/>
+      <c r="B90" s="148"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="148"/>
       <c r="F90" s="87">
         <v>0</v>
       </c>
@@ -4687,20 +4705,20 @@
         <v>0</v>
       </c>
       <c r="K90" s="79"/>
-      <c r="L90" s="122"/>
-      <c r="M90" s="122"/>
-      <c r="N90" s="122"/>
+      <c r="L90" s="159"/>
+      <c r="M90" s="159"/>
+      <c r="N90" s="159"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="121" t="s">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="121"/>
-      <c r="C91" s="121"/>
-      <c r="D91" s="121"/>
-      <c r="E91" s="121"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="148"/>
       <c r="F91" s="87">
         <v>0</v>
       </c>
@@ -4713,20 +4731,20 @@
         <v>0</v>
       </c>
       <c r="K91" s="84"/>
-      <c r="L91" s="122"/>
-      <c r="M91" s="122"/>
-      <c r="N91" s="122"/>
+      <c r="L91" s="159"/>
+      <c r="M91" s="159"/>
+      <c r="N91" s="159"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="121" t="s">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="B92" s="121"/>
-      <c r="C92" s="121"/>
-      <c r="D92" s="121"/>
-      <c r="E92" s="121"/>
+      <c r="B92" s="148"/>
+      <c r="C92" s="148"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="148"/>
       <c r="F92" s="87">
         <v>0</v>
       </c>
@@ -4739,22 +4757,22 @@
         <v>0</v>
       </c>
       <c r="K92" s="67"/>
-      <c r="L92" s="123"/>
-      <c r="M92" s="123"/>
-      <c r="N92" s="123"/>
+      <c r="L92" s="160"/>
+      <c r="M92" s="160"/>
+      <c r="N92" s="160"/>
       <c r="O92" s="82"/>
       <c r="P92" s="82"/>
     </row>
-    <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="120" t="s">
+    <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="120"/>
-      <c r="C93" s="120"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="120"/>
-      <c r="F93" s="120"/>
-      <c r="G93" s="120"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="127"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="7">
         <f>SUM(H88:H92)</f>
         <v>154632.77142857143</v>
@@ -4766,7 +4784,7 @@
       <c r="O93" s="82"/>
       <c r="P93" s="82"/>
     </row>
-    <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="79"/>
       <c r="B94" s="80"/>
       <c r="C94" s="57"/>
@@ -4774,38 +4792,38 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="K94" s="67"/>
-      <c r="L94" s="123"/>
-      <c r="M94" s="123"/>
-      <c r="N94" s="123"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="160"/>
+      <c r="N94" s="160"/>
       <c r="O94" s="82"/>
       <c r="P94" s="82"/>
     </row>
-    <row r="95" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="109" t="s">
+    <row r="95" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="109"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="109"/>
-      <c r="G95" s="109"/>
+      <c r="B95" s="162"/>
+      <c r="C95" s="162"/>
+      <c r="D95" s="162"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="162"/>
+      <c r="G95" s="162"/>
       <c r="H95" s="88"/>
       <c r="K95" s="8"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123"/>
-      <c r="N95" s="123"/>
+      <c r="L95" s="160"/>
+      <c r="M95" s="160"/>
+      <c r="N95" s="160"/>
       <c r="O95" s="82"/>
       <c r="P95" s="82"/>
     </row>
-    <row r="96" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119" t="s">
+    <row r="96" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="119"/>
-      <c r="C96" s="119"/>
-      <c r="D96" s="119"/>
-      <c r="E96" s="119"/>
+      <c r="B96" s="161"/>
+      <c r="C96" s="161"/>
+      <c r="D96" s="161"/>
+      <c r="E96" s="161"/>
       <c r="F96" s="92" t="s">
         <v>117</v>
       </c>
@@ -4822,14 +4840,14 @@
       <c r="O96" s="82"/>
       <c r="P96" s="82"/>
     </row>
-    <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="110" t="s">
+    <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="110"/>
-      <c r="C97" s="110"/>
-      <c r="D97" s="110"/>
-      <c r="E97" s="110"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="129"/>
+      <c r="D97" s="129"/>
+      <c r="E97" s="129"/>
       <c r="F97" s="87">
         <v>0.68</v>
       </c>
@@ -4842,20 +4860,20 @@
         <v>76917.179999999993</v>
       </c>
       <c r="K97" s="67"/>
-      <c r="L97" s="123"/>
-      <c r="M97" s="123"/>
-      <c r="N97" s="123"/>
+      <c r="L97" s="160"/>
+      <c r="M97" s="160"/>
+      <c r="N97" s="160"/>
       <c r="O97" s="82"/>
       <c r="P97" s="82"/>
     </row>
-    <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="110" t="s">
+    <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="111"/>
-      <c r="C98" s="111"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="111"/>
+      <c r="B98" s="165"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="165"/>
       <c r="F98" s="87">
         <v>0.2</v>
       </c>
@@ -4874,14 +4892,14 @@
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
     </row>
-    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="110" t="s">
+    <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="129"/>
+      <c r="E99" s="129"/>
       <c r="F99" s="87">
         <v>0</v>
       </c>
@@ -4896,20 +4914,20 @@
       <c r="I99" s="86"/>
       <c r="J99" s="86"/>
       <c r="K99" s="67"/>
-      <c r="L99" s="123"/>
-      <c r="M99" s="123"/>
-      <c r="N99" s="123"/>
+      <c r="L99" s="160"/>
+      <c r="M99" s="160"/>
+      <c r="N99" s="160"/>
       <c r="O99" s="82"/>
       <c r="P99" s="82"/>
     </row>
-    <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="110" t="s">
+    <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="110"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="129"/>
+      <c r="D100" s="129"/>
+      <c r="E100" s="129"/>
       <c r="F100" s="87">
         <v>0.02</v>
       </c>
@@ -4922,20 +4940,20 @@
         <v>7041.32</v>
       </c>
       <c r="K100" s="67"/>
-      <c r="L100" s="123"/>
-      <c r="M100" s="123"/>
-      <c r="N100" s="123"/>
+      <c r="L100" s="160"/>
+      <c r="M100" s="160"/>
+      <c r="N100" s="160"/>
       <c r="O100" s="82"/>
       <c r="P100" s="82"/>
     </row>
-    <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="110" t="s">
+    <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="110"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="110"/>
-      <c r="E101" s="110"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="129"/>
+      <c r="E101" s="129"/>
       <c r="F101" s="87">
         <v>0.1</v>
       </c>
@@ -4948,34 +4966,34 @@
         <v>30177</v>
       </c>
       <c r="K101" s="8"/>
-      <c r="L101" s="123"/>
-      <c r="M101" s="123"/>
-      <c r="N101" s="123"/>
+      <c r="L101" s="160"/>
+      <c r="M101" s="160"/>
+      <c r="N101" s="160"/>
       <c r="O101" s="82"/>
       <c r="P101" s="82"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="120" t="s">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="120"/>
-      <c r="C102" s="120"/>
-      <c r="D102" s="120"/>
-      <c r="E102" s="120"/>
-      <c r="F102" s="120"/>
-      <c r="G102" s="120"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
       <c r="H102" s="7">
         <f>SUM(H97:H101)</f>
         <v>164437.71428571429</v>
       </c>
       <c r="K102" s="8"/>
-      <c r="L102" s="122"/>
-      <c r="M102" s="122"/>
-      <c r="N102" s="122"/>
+      <c r="L102" s="159"/>
+      <c r="M102" s="159"/>
+      <c r="N102" s="159"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -4983,35 +5001,130 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="166" t="s">
+    <row r="104" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="B104" s="166"/>
-      <c r="C104" s="166"/>
-      <c r="D104" s="166"/>
-      <c r="E104" s="166"/>
-      <c r="F104" s="166"/>
-      <c r="G104" s="166"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="128"/>
       <c r="H104" s="7">
         <f>H102-H93</f>
         <v>9804.942857142858</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="159" t="s">
+    <row r="106" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B106" s="159"/>
-      <c r="C106" s="159"/>
-      <c r="D106" s="159"/>
-      <c r="E106" s="159"/>
-      <c r="F106" s="159"/>
-      <c r="G106" s="159"/>
-      <c r="H106" s="159"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="109"/>
+      <c r="E106" s="109"/>
+      <c r="F106" s="109"/>
+      <c r="G106" s="109"/>
+      <c r="H106" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A106:H106"/>
     <mergeCell ref="D28:D29"/>
@@ -5036,101 +5149,6 @@
     <mergeCell ref="A102:G102"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A99:E99"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A63:F63"/>
   </mergeCells>
   <conditionalFormatting sqref="E58:F58 E60:F60 F59">
     <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
@@ -5168,7 +5186,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Background sheet -please keep'!$A$1:$A$4</xm:f>
           </x14:formula1>
@@ -5181,87 +5199,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="126"/>
-    </row>
-    <row r="5" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="134" t="s">
+      <c r="F4" s="145"/>
+    </row>
+    <row r="5" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="127" t="s">
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="127"/>
-    </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="178" t="s">
+      <c r="F5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-    </row>
-    <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+    </row>
+    <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89"/>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -5273,18 +5291,18 @@
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="149" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>1</v>
       </c>
@@ -5307,8 +5325,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="176" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="167" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -5323,17 +5341,17 @@
       <c r="E12" s="26">
         <v>2</v>
       </c>
-      <c r="F12" s="155">
+      <c r="F12" s="142">
         <f>(C12/D12*E12)+(C13/D13*E13)</f>
         <v>4.5357142857142856</v>
       </c>
-      <c r="G12" s="157">
+      <c r="G12" s="107">
         <f>F12*365</f>
         <v>1655.5357142857142</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="168"/>
       <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
@@ -5346,10 +5364,10 @@
       <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F13" s="156"/>
-      <c r="G13" s="158"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="143"/>
+      <c r="G13" s="108"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>7</v>
       </c>
@@ -5374,8 +5392,8 @@
         <v>271.56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="140" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -5390,17 +5408,17 @@
       <c r="E15" s="26">
         <v>2</v>
       </c>
-      <c r="F15" s="155">
+      <c r="F15" s="142">
         <f>(C15/D15*E15)+(C16/D16*E16)</f>
         <v>2.9385714285714286</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="107">
         <f>F15*365</f>
         <v>1072.5785714285714</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="141"/>
       <c r="B16" s="27" t="s">
         <v>2</v>
       </c>
@@ -5413,11 +5431,11 @@
       <c r="E16" s="26">
         <v>1</v>
       </c>
-      <c r="F16" s="156"/>
-      <c r="G16" s="158"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="133" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -5440,8 +5458,8 @@
         <v>2908.36</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="133"/>
       <c r="B18" s="30" t="s">
         <v>31</v>
       </c>
@@ -5462,101 +5480,101 @@
         <v>2876.3999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+    <row r="20" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="161" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="172" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146" t="s">
+      <c r="C23" s="116"/>
+      <c r="D23" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="146" t="s">
+      <c r="E23" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="175" t="s">
+      <c r="F23" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="175" t="s">
+      <c r="G23" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="167" t="s">
+      <c r="H23" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="167" t="s">
+      <c r="I23" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="172" t="s">
+      <c r="J23" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="146" t="s">
+      <c r="K23" s="116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
-      <c r="B24" s="146" t="s">
+    <row r="24" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="171"/>
+      <c r="B24" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="141"/>
-    </row>
-    <row r="25" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="133"/>
+    </row>
+    <row r="25" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="172"/>
       <c r="B25" s="59" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="141"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="133"/>
+    </row>
+    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="62" t="s">
         <v>133</v>
       </c>
@@ -5568,21 +5586,21 @@
         <v>0.05</v>
       </c>
       <c r="D26" s="52">
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="E26" s="53">
         <v>0</v>
       </c>
       <c r="F26" s="55">
         <f>(D26*C26)+(E26*C26)</f>
-        <v>0</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="G26" s="24">
         <v>4</v>
       </c>
       <c r="H26" s="38">
         <f>F26+G26</f>
-        <v>4</v>
+        <v>4.7465000000000002</v>
       </c>
       <c r="I26" s="39">
         <v>7</v>
@@ -5593,10 +5611,10 @@
       </c>
       <c r="K26" s="38">
         <f>J26*H26</f>
-        <v>208.57142857142858</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>247.49607142857144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="99" t="s">
         <v>135</v>
       </c>
@@ -5608,21 +5626,21 @@
         <v>0.25</v>
       </c>
       <c r="D27" s="52">
-        <v>0</v>
+        <v>25.39</v>
       </c>
       <c r="E27" s="53">
         <v>0</v>
       </c>
       <c r="F27" s="95">
         <f t="shared" ref="F27:F28" si="0">(D27*C27)+(E27*C27)</f>
-        <v>0</v>
+        <v>6.3475000000000001</v>
       </c>
       <c r="G27" s="24">
         <v>30</v>
       </c>
       <c r="H27" s="38">
         <f>F27+G27</f>
-        <v>30</v>
+        <v>36.347499999999997</v>
       </c>
       <c r="I27" s="47" t="s">
         <v>33</v>
@@ -5632,10 +5650,10 @@
       </c>
       <c r="K27" s="38">
         <f>H27*J27</f>
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>1890.0699999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="99" t="s">
         <v>136</v>
       </c>
@@ -5647,21 +5665,21 @@
         <v>0.25</v>
       </c>
       <c r="D28" s="52">
-        <v>0</v>
+        <v>25.39</v>
       </c>
       <c r="E28" s="53">
         <v>0</v>
       </c>
       <c r="F28" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3475000000000001</v>
       </c>
       <c r="G28" s="24">
         <v>30</v>
       </c>
       <c r="H28" s="38">
         <f>G28+F28</f>
-        <v>30</v>
+        <v>36.347499999999997</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>33</v>
@@ -5671,63 +5689,63 @@
       </c>
       <c r="K28" s="38">
         <f>H28*J28</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="117" t="s">
+        <v>436.16999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="149" t="s">
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="167" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="174"/>
+      <c r="D33" s="174" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167" t="s">
+      <c r="E33" s="174"/>
+      <c r="F33" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167" t="s">
+      <c r="G33" s="174"/>
+      <c r="H33" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167" t="s">
+      <c r="I33" s="174"/>
+      <c r="J33" s="174" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="167"/>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="174"/>
       <c r="B34" s="60" t="s">
         <v>83</v>
       </c>
@@ -5752,29 +5770,29 @@
       <c r="I34" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="167"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="174"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="168">
+      <c r="B35" s="175">
         <v>1.27</v>
       </c>
-      <c r="C35" s="169">
-        <v>26</v>
-      </c>
-      <c r="D35" s="170">
+      <c r="C35" s="176">
+        <v>52</v>
+      </c>
+      <c r="D35" s="177">
         <v>0.43</v>
       </c>
-      <c r="E35" s="171">
-        <v>26</v>
+      <c r="E35" s="178">
+        <v>52</v>
       </c>
       <c r="F35" s="91">
         <v>2.5</v>
       </c>
       <c r="G35" s="46">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H35" s="39">
         <f>0.55*6</f>
@@ -5785,17 +5803,17 @@
       </c>
       <c r="J35" s="38">
         <f>B35*C35+D35*E35+F35*G35+H35*I35</f>
-        <v>280.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="171"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
       <c r="F36" s="55" t="s">
         <v>33</v>
       </c>
@@ -5810,17 +5828,17 @@
       </c>
       <c r="J36" s="38">
         <f>B35*C35+D35*E35</f>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="171"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
       <c r="F37" s="55" t="s">
         <v>33</v>
       </c>
@@ -5835,18 +5853,18 @@
       </c>
       <c r="J37" s="38">
         <f>B35*C35+D35*E35</f>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="168"/>
+      <c r="B38" s="175"/>
       <c r="C38" s="45">
         <v>12</v>
       </c>
-      <c r="D38" s="170"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="45">
         <v>12</v>
       </c>
@@ -5867,61 +5885,61 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="117" t="s">
+    <row r="41" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="163" t="s">
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114" t="s">
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="114"/>
-    </row>
-    <row r="45" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163"/>
-      <c r="B45" s="134" t="s">
+      <c r="F44" s="158"/>
+    </row>
+    <row r="45" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="119"/>
+      <c r="B45" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="127" t="s">
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="127"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="F45" s="146"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="119"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="68" t="s">
         <v>34</v>
       </c>
@@ -5929,7 +5947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="37" t="s">
         <v>61</v>
       </c>
@@ -5939,16 +5957,16 @@
       <c r="E47" s="20"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="133" t="str">
+      <c r="B48" s="118" t="str">
         <f>IF(A48="Buprenorphine oral lyophilisates sugar free (Espranor®)",$G$12,IF(A48="Methadone oral solution",$G$14,IF(A48="Buprenorphine sublingual tablets sugar free",$G$15,"")))</f>
         <v/>
       </c>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="17">
         <f>$G$17</f>
         <v>2908.36</v>
@@ -5958,33 +5976,33 @@
         <v>2876.3999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="73"/>
       <c r="C49" s="74"/>
       <c r="D49" s="74"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="133" t="str">
+      <c r="B50" s="118" t="str">
         <f>IF(A48="Buprenorphine oral lyophilisates sugar free (Espranor®)",$K$26,IF(A48="Methadone oral solution",$K$26,IF(A48="Buprenorphine sublingual tablets sugar free",$K$26,"")))</f>
         <v/>
       </c>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
       <c r="E50" s="21">
         <f>K27</f>
-        <v>1560</v>
+        <v>1890.0699999999997</v>
       </c>
       <c r="F50" s="17">
         <f>K28</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>436.16999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="75"/>
       <c r="C51" s="76"/>
@@ -5992,52 +6010,52 @@
       <c r="E51" s="21"/>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="133" t="str">
+      <c r="B52" s="118" t="str">
         <f>IF(A48="Buprenorphine oral lyophilisates sugar free (Espranor®)",$J$36,IF(A48="Methadone oral solution",$J$35,IF(A48="Buprenorphine sublingual tablets sugar free",$J$36,"")))</f>
         <v/>
       </c>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="21">
         <f>J37</f>
-        <v>44.2</v>
+        <v>88.4</v>
       </c>
       <c r="F52" s="17">
         <f>J38</f>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
       <c r="E53" s="18"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
       <c r="E55" s="51" t="s">
         <v>53</v>
       </c>
@@ -6045,15 +6063,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
       <c r="E56" s="51" t="s">
         <v>53</v>
       </c>
@@ -6061,15 +6079,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="51" t="s">
         <v>53</v>
       </c>
@@ -6077,15 +6095,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
       <c r="E58" s="51" t="s">
         <v>53</v>
       </c>
@@ -6093,15 +6111,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
+      <c r="B59" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
       <c r="E59" s="51" t="s">
         <v>53</v>
       </c>
@@ -6109,22 +6127,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
       <c r="D60" s="71"/>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
       <c r="E61" s="51" t="s">
         <v>53</v>
       </c>
@@ -6132,12 +6150,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
       <c r="E62" s="51" t="s">
         <v>53</v>
       </c>
@@ -6145,12 +6163,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
       <c r="E63" s="51" t="s">
         <v>53</v>
       </c>
@@ -6158,107 +6176,107 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="71"/>
       <c r="C64" s="71"/>
       <c r="D64" s="71"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="124">
+      <c r="B65" s="155">
         <f>SUM(B48:D63)</f>
         <v>0</v>
       </c>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
       <c r="E65" s="70">
         <f>SUM(E48:E63)</f>
-        <v>4512.5600000000004</v>
+        <v>4886.83</v>
       </c>
       <c r="F65" s="70">
         <f>SUM(F48:F63)</f>
-        <v>3256.7999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="132" t="s">
+        <v>3332.97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="153"/>
       <c r="E66" s="78">
         <f>E65-B65</f>
-        <v>4512.5600000000004</v>
+        <v>4886.83</v>
       </c>
       <c r="F66" s="78">
         <f>F65-B65</f>
-        <v>3256.7999999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="107" t="s">
+        <v>3332.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="85">
         <v>100</v>
       </c>
       <c r="F67" s="78"/>
     </row>
-    <row r="70" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="117" t="s">
+    <row r="70" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="117"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="118" t="s">
+      <c r="B70" s="124"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="118"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="157"/>
+      <c r="E72" s="157"/>
+      <c r="F72" s="157"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="113" t="s">
+      <c r="B73" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="114" t="s">
+      <c r="C73" s="150"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="114"/>
-    </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F73" s="158"/>
+    </row>
+    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="115" t="s">
+      <c r="B74" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
       <c r="E74" s="51" t="s">
         <v>53</v>
       </c>
@@ -6266,15 +6284,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
+      <c r="B75" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="51" t="s">
         <v>53</v>
       </c>
@@ -6282,33 +6300,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="116"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="156"/>
+      <c r="D76" s="156"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
+      <c r="B78" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
       <c r="E78" s="51" t="s">
         <v>53</v>
       </c>
@@ -6316,15 +6334,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
+      <c r="B79" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="51" t="s">
         <v>53</v>
       </c>
@@ -6332,15 +6350,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
+      <c r="B80" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="154"/>
+      <c r="D80" s="154"/>
       <c r="E80" s="51" t="s">
         <v>53</v>
       </c>
@@ -6348,15 +6366,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
+      <c r="B81" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="154"/>
+      <c r="D81" s="154"/>
       <c r="E81" s="51" t="s">
         <v>53</v>
       </c>
@@ -6364,15 +6382,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
+      <c r="B82" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="154"/>
+      <c r="D82" s="154"/>
       <c r="E82" s="51" t="s">
         <v>53</v>
       </c>
@@ -6380,23 +6398,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
+      <c r="B83" s="156"/>
+      <c r="C83" s="156"/>
+      <c r="D83" s="156"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="115"/>
-      <c r="D84" s="115"/>
+      <c r="B84" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="154"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="51" t="s">
         <v>53</v>
       </c>
@@ -6404,13 +6422,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
-      <c r="B85" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
+      <c r="B85" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="51" t="s">
         <v>53</v>
       </c>
@@ -6418,12 +6436,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
       <c r="E86" s="51" t="s">
         <v>53</v>
       </c>
@@ -6431,63 +6449,63 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="116"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="116"/>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="156"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="156"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="124">
+      <c r="B88" s="155">
         <f>SUM(B74:D86)+(B65*E67)</f>
         <v>0</v>
       </c>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="144"/>
       <c r="E88" s="70">
         <f>SUM(E74:E86)+(E65*E67)</f>
-        <v>451256.00000000006</v>
+        <v>488683</v>
       </c>
       <c r="F88" s="70">
         <f>SUM(F74:F86)+(F65*E67)</f>
-        <v>325680</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="108" t="s">
+        <v>333297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="108"/>
-      <c r="C89" s="108"/>
-      <c r="D89" s="108"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="164"/>
+      <c r="D89" s="164"/>
       <c r="E89" s="78">
         <f>E88-B88</f>
-        <v>451256.00000000006</v>
+        <v>488683</v>
       </c>
       <c r="F89" s="78">
         <f>F88-B88</f>
-        <v>325680</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="117" t="s">
+        <v>333297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="117"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="117"/>
-      <c r="H92" s="117"/>
-      <c r="I92" s="117"/>
-      <c r="J92" s="117"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="124"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+      <c r="J92" s="124"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="65"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
@@ -6497,47 +6515,47 @@
       <c r="G93" s="65"/>
       <c r="H93" s="65"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="112" t="s">
+    <row r="94" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
+      <c r="B94" s="166"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="166"/>
+      <c r="E94" s="166"/>
       <c r="F94" s="90">
         <v>100</v>
       </c>
       <c r="G94" s="65"/>
       <c r="H94" s="65"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B95" s="96"/>
       <c r="C95" s="96"/>
       <c r="D95" s="96"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="109" t="s">
+    <row r="96" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="109"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="109"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="109"/>
+      <c r="B96" s="162"/>
+      <c r="C96" s="162"/>
+      <c r="D96" s="162"/>
+      <c r="E96" s="162"/>
+      <c r="F96" s="162"/>
+      <c r="G96" s="162"/>
       <c r="H96" s="88"/>
     </row>
-    <row r="97" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="119" t="s">
+    <row r="97" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="119"/>
-      <c r="C97" s="119"/>
-      <c r="D97" s="119"/>
-      <c r="E97" s="119"/>
+      <c r="B97" s="161"/>
+      <c r="C97" s="161"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="161"/>
       <c r="F97" s="97" t="s">
         <v>117</v>
       </c>
@@ -6548,14 +6566,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="128" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="128"/>
-      <c r="C98" s="128"/>
-      <c r="D98" s="128"/>
-      <c r="E98" s="128"/>
+      <c r="B98" s="147"/>
+      <c r="C98" s="147"/>
+      <c r="D98" s="147"/>
+      <c r="E98" s="147"/>
       <c r="F98" s="87">
         <v>0.7</v>
       </c>
@@ -6565,17 +6583,17 @@
       </c>
       <c r="H98" s="7">
         <f>($G$14+$K$26+$J$35)*G98</f>
-        <v>53265.2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="121" t="s">
+        <v>63633.924999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="129"/>
-      <c r="C99" s="129"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="129"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="149"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="149"/>
       <c r="F99" s="87">
         <v>0.3</v>
       </c>
@@ -6585,17 +6603,17 @@
       </c>
       <c r="H99" s="7">
         <f>($G$12+$K$26+$J$36)*G99</f>
-        <v>57249.21428571429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="121" t="s">
+        <v>59742.953571428574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="121"/>
-      <c r="C100" s="121"/>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
+      <c r="B100" s="148"/>
+      <c r="C100" s="148"/>
+      <c r="D100" s="148"/>
+      <c r="E100" s="148"/>
       <c r="F100" s="87">
         <v>0</v>
       </c>
@@ -6608,14 +6626,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="121" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="121"/>
-      <c r="C101" s="121"/>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
+      <c r="B101" s="148"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="148"/>
       <c r="F101" s="87">
         <v>0</v>
       </c>
@@ -6628,14 +6646,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="121" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="121"/>
-      <c r="C102" s="121"/>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
+      <c r="B102" s="148"/>
+      <c r="C102" s="148"/>
+      <c r="D102" s="148"/>
+      <c r="E102" s="148"/>
       <c r="F102" s="87">
         <v>0</v>
       </c>
@@ -6648,22 +6666,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="120" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="B103" s="120"/>
-      <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="120"/>
-      <c r="F103" s="120"/>
-      <c r="G103" s="120"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
       <c r="H103" s="7">
         <f>SUM(H98:H102)</f>
-        <v>110514.41428571429</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123376.87857142856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="79"/>
       <c r="B104" s="80"/>
       <c r="C104" s="96"/>
@@ -6671,26 +6689,26 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="109" t="s">
+    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="109"/>
+      <c r="B105" s="162"/>
+      <c r="C105" s="162"/>
+      <c r="D105" s="162"/>
+      <c r="E105" s="162"/>
+      <c r="F105" s="162"/>
+      <c r="G105" s="162"/>
       <c r="H105" s="88"/>
     </row>
-    <row r="106" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A106" s="119" t="s">
+    <row r="106" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="119"/>
-      <c r="C106" s="119"/>
-      <c r="D106" s="119"/>
-      <c r="E106" s="119"/>
+      <c r="B106" s="161"/>
+      <c r="C106" s="161"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="161"/>
       <c r="F106" s="97" t="s">
         <v>117</v>
       </c>
@@ -6701,14 +6719,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="110" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="B107" s="110"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
+      <c r="B107" s="129"/>
+      <c r="C107" s="129"/>
+      <c r="D107" s="129"/>
+      <c r="E107" s="129"/>
       <c r="F107" s="87">
         <v>0.68</v>
       </c>
@@ -6718,17 +6736,17 @@
       </c>
       <c r="H107" s="7">
         <f>($G$14+$K$26+$J$35)*G107</f>
-        <v>51743.337142857141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="110" t="s">
+        <v>61815.812857142853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="111"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
+      <c r="B108" s="165"/>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
       <c r="F108" s="87">
         <v>0.2</v>
       </c>
@@ -6738,17 +6756,17 @@
       </c>
       <c r="H108" s="7">
         <f>($G$12+$K$26+$J$36)*G108</f>
-        <v>38166.142857142855</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="110" t="s">
+        <v>39828.635714285716</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="110"/>
-      <c r="C109" s="110"/>
-      <c r="D109" s="110"/>
-      <c r="E109" s="110"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="129"/>
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
       <c r="F109" s="87">
         <v>0</v>
       </c>
@@ -6761,14 +6779,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="110" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="110"/>
-      <c r="C110" s="110"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="110"/>
+      <c r="B110" s="129"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
+      <c r="E110" s="129"/>
       <c r="F110" s="87">
         <v>0.02</v>
       </c>
@@ -6778,17 +6796,17 @@
       </c>
       <c r="H110" s="7">
         <f>($G$17+$K$27+$J$37)*G110</f>
-        <v>9025.1200000000008</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="110" t="s">
+        <v>9773.66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="110"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="110"/>
+      <c r="B111" s="129"/>
+      <c r="C111" s="129"/>
+      <c r="D111" s="129"/>
+      <c r="E111" s="129"/>
       <c r="F111" s="87">
         <v>0.1</v>
       </c>
@@ -6798,135 +6816,53 @@
       </c>
       <c r="H111" s="7">
         <f>($G$18+$K$28+$J$38)*G111</f>
-        <v>32567.999999999996</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="120" t="s">
+        <v>33329.699999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="B112" s="120"/>
-      <c r="C112" s="120"/>
-      <c r="D112" s="120"/>
-      <c r="E112" s="120"/>
-      <c r="F112" s="120"/>
-      <c r="G112" s="120"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
       <c r="H112" s="7">
         <f>SUM(H107:H111)</f>
-        <v>131502.59999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="166" t="s">
+        <v>144747.80857142858</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="B114" s="166"/>
-      <c r="C114" s="166"/>
-      <c r="D114" s="166"/>
-      <c r="E114" s="166"/>
-      <c r="F114" s="166"/>
-      <c r="G114" s="166"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="128"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="128"/>
       <c r="H114" s="7">
         <f>H112-H103</f>
-        <v>20988.18571428569</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="159" t="s">
+        <v>21370.930000000022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B116" s="159"/>
-      <c r="C116" s="159"/>
-      <c r="D116" s="159"/>
-      <c r="E116" s="159"/>
-      <c r="F116" s="159"/>
-      <c r="G116" s="159"/>
-      <c r="H116" s="159"/>
+      <c r="B116" s="109"/>
+      <c r="C116" s="109"/>
+      <c r="D116" s="109"/>
+      <c r="E116" s="109"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="109"/>
+      <c r="H116" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
     <mergeCell ref="A116:H116"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A109:E109"/>
@@ -6947,6 +6883,88 @@
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A112:G112"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E5:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E66:F66 F67">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
@@ -6984,7 +7002,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'Background sheet -please keep'!$A$1:$A$4</xm:f>
           </x14:formula1>
@@ -6997,34 +7015,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7035,6 +7053,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
+    <MigrationWizId xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
+    <MigrationWizIdVersion xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
+    <TaxCatchAll xmlns="1022d36a-6a71-4d72-80e6-4c293b40d898" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MigrationWizIdPermissionLevels xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025691CB87DDBD64C8FD32887379E2DE8" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc62939c1b9ec51d9cf0c8c46e90be38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xmlns:ns3="1022d36a-6a71-4d72-80e6-4c293b40d898" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18ea0c83e7f4aef3e764f39f7f191d07" ns2:_="" ns3:_="">
     <xsd:import namespace="661984a6-da6b-4af6-b4e6-6f7afbeb6463"/>
@@ -7305,40 +7349,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
-    <MigrationWizId xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
-    <MigrationWizIdVersion xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
-    <TaxCatchAll xmlns="1022d36a-6a71-4d72-80e6-4c293b40d898" xsi:nil="true"/>
-    <MigrationWizIdPermissions xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MigrationWizIdPermissionLevels xmlns="661984a6-da6b-4af6-b4e6-6f7afbeb6463" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75529BEB-905F-4871-AA9F-1FFE354F6034}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C07D226C-43ED-4B25-94D4-AC478A5D3E4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="661984a6-da6b-4af6-b4e6-6f7afbeb6463"/>
+    <ds:schemaRef ds:uri="1022d36a-6a71-4d72-80e6-4c293b40d898"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF16CD42-2ABF-4B3C-8ECB-6187EE9CA3EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF16CD42-2ABF-4B3C-8ECB-6187EE9CA3EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C07D226C-43ED-4B25-94D4-AC478A5D3E4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75529BEB-905F-4871-AA9F-1FFE354F6034}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="661984a6-da6b-4af6-b4e6-6f7afbeb6463"/>
+    <ds:schemaRef ds:uri="1022d36a-6a71-4d72-80e6-4c293b40d898"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>